--- a/w10_______others/02_MT3D/01.xlsx
+++ b/w10_______others/02_MT3D/01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15_REPOS\00_BETAMI\w10_______others\02_MT3D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EF86B1-07D4-4AE7-BE97-7AA834E3284E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2464C9FF-157E-498A-BD61-B4A25C3B9700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="21" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="127">
   <si>
     <t>C0</t>
   </si>
@@ -286,145 +286,178 @@
     <t>BT(C)</t>
   </si>
   <si>
-    <t>cncspd = [[(0, 0, 0), c0]]</t>
+    <t>perlen / nstp</t>
   </si>
   <si>
-    <t>c0 = 1.0</t>
+    <t xml:space="preserve"> (ncol - 1) * delr</t>
   </si>
   <si>
-    <t>chdspd = [[(0, 0, 0), h1], [(0, 0, ncol - 1), 0.0]]</t>
+    <t>v * prsity</t>
   </si>
   <si>
-    <t>tdis_rc.append((perlen, nstp, 1.0))</t>
+    <t>q * Lx</t>
   </si>
   <si>
-    <t>tdis_rc = []                                              # Time discretization</t>
+    <t>k11</t>
   </si>
   <si>
-    <t>npsink = nph  # HMOC</t>
+    <t>hclose</t>
   </si>
   <si>
-    <t>nlsink = nplane  # HMOC</t>
+    <t>rclose</t>
   </si>
   <si>
-    <t>npmax = 8  # HMOC</t>
+    <t>relax</t>
   </si>
   <si>
-    <t>npmin = 0  # HMOC</t>
+    <t>nouter</t>
   </si>
   <si>
-    <t>nph = 4  # HMOC</t>
+    <t>ninner</t>
   </si>
   <si>
-    <t>npl = 0  # HMOC</t>
+    <t>ttsmult</t>
   </si>
   <si>
-    <t>nplane = 1  # HMOC</t>
+    <t>nplane</t>
   </si>
   <si>
-    <t>dceps = 1.0e-5  # HMOC parameters in case they are invoked</t>
+    <t>nph</t>
   </si>
   <si>
-    <t>ttsmult = 1.0</t>
+    <t>dceps</t>
   </si>
   <si>
-    <t>hclose, rclose, relax = 1e-6, 1e-6, 1.0</t>
+    <t>npl</t>
   </si>
   <si>
-    <t>nouter, ninner = 100, 300                                  # Set solver parameter values (and related)</t>
+    <t>npmin</t>
   </si>
   <si>
-    <t>dmcoef = 0.0  # Molecular diffusion coefficient</t>
+    <t>npmax</t>
   </si>
   <si>
-    <t>sconc = np.zeros((nlay, nrow, ncol), dtype=float)</t>
+    <t>nlsink</t>
   </si>
   <si>
-    <t>sp2 = 0.0  # red, but not used in this problem</t>
+    <t xml:space="preserve">npsink </t>
   </si>
   <si>
-    <t>rhob = 0.25</t>
+    <t>tdis_rc</t>
   </si>
   <si>
-    <t>mixelm = 0  # upstream                                      # Set some static transport related model parameter values</t>
+    <t>retardation:</t>
   </si>
   <si>
-    <t>ibound[0, 0, -1] = -1</t>
+    <t>decay:</t>
   </si>
   <si>
-    <t>ibound[0, 0, 0] = -1</t>
+    <t>dispersivity</t>
   </si>
   <si>
-    <t>ibound = np.ones((nlay, nrow, ncol), dtype=int)</t>
+    <t>0,10,10,10</t>
   </si>
   <si>
-    <t>icelltype = 1  # Cell conversion type</t>
+    <t>1,1,5,5</t>
   </si>
   <si>
-    <t>l = 1000.0  # Needed for plots</t>
+    <t>0,0,0,0.002</t>
   </si>
   <si>
-    <t>strt[0, 0, 0] = h1  # Starting head ($m$)</t>
+    <t>distribution_coefficient</t>
   </si>
   <si>
-    <t>strt = np.zeros((nlay, nrow, ncol), dtype=float)</t>
+    <t>nlay</t>
   </si>
   <si>
-    <t>h1 = q * Lx</t>
+    <t>ncol</t>
   </si>
   <si>
-    <t>q = v * prsity</t>
+    <t>nrow</t>
   </si>
   <si>
-    <t>v = 0.24</t>
+    <t>top</t>
   </si>
   <si>
-    <t>Lx = (ncol - 1) * delr</t>
+    <t>prsity</t>
   </si>
   <si>
-    <t>dt0 = perlen / nstp</t>
+    <t>k33</t>
   </si>
   <si>
-    <t>nstp = 100.0</t>
+    <t>laytyp</t>
   </si>
   <si>
-    <t>laytyp = 1</t>
+    <t>nstp</t>
   </si>
   <si>
-    <t>k33 = k11  # Vertical hydraulic conductivity ($m/d$)          # Set some static model parameter values</t>
+    <t>dt0</t>
   </si>
   <si>
-    <t>k11 = 1.0  # Horizontal hydraulic conductivity ($m/d$)</t>
+    <t>v</t>
   </si>
   <si>
-    <t>perlen = 2000  # Simulation time ($days$)</t>
+    <t>q</t>
   </si>
   <si>
-    <t>prsity = 0.25  # Porosity</t>
+    <t>h1</t>
   </si>
   <si>
-    <t>botm = -1.0  # Layer bottom elevations ($m$)</t>
+    <t>l</t>
   </si>
   <si>
-    <t>top  = 0.0  # Top of the model ($m$)</t>
+    <t>icelltype</t>
   </si>
   <si>
-    <t>delc = 1.0  # Row width ($m$)</t>
+    <t>mixelm</t>
   </si>
   <si>
-    <t>delr = 10.0  # Column width ($m$)</t>
+    <t>rhob</t>
   </si>
   <si>
-    <t>nrow = 1  # Number of rows</t>
+    <t>sp2</t>
   </si>
   <si>
-    <t>ncol = 101  # Number of columns</t>
+    <t>dmcoef</t>
   </si>
   <si>
-    <t>nlay = 1  # Number of layers</t>
+    <t>period1</t>
   </si>
   <si>
-    <t>nper = 1  # Number of periods                                # Model parameters</t>
+    <t>period2</t>
+  </si>
+  <si>
+    <t>delta_time</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>hydraulic_conductivity</t>
+  </si>
+  <si>
+    <t>porosity</t>
+  </si>
+  <si>
+    <t>bulk_density</t>
+  </si>
+  <si>
+    <t>source_concentration</t>
+  </si>
+  <si>
+    <t>initial_concentration</t>
+  </si>
+  <si>
+    <t>sconc</t>
+  </si>
+  <si>
+    <t>periods</t>
+  </si>
+  <si>
+    <t>strt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Manu</t>
   </si>
 </sst>
 </file>
@@ -437,7 +470,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,8 +691,88 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -762,6 +875,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -776,7 +901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1044,10 +1169,135 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="34" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,6 +1308,7 @@
   <colors>
     <mruColors>
       <color rgb="FF0000FF"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FF000000"/>
     </mruColors>
   </colors>
@@ -11285,253 +11536,2495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3510B7-CC10-48ED-88C4-99FD3B4AA6A2}">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="75" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="127" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="127" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="114" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="114" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="138" customWidth="1"/>
+    <col min="7" max="8" width="4.28515625" style="100" customWidth="1"/>
+    <col min="9" max="10" width="3.5703125" style="100" customWidth="1"/>
+    <col min="11" max="12" width="7.85546875" style="127" customWidth="1"/>
+    <col min="13" max="15" width="7.140625" style="127" customWidth="1"/>
+    <col min="16" max="21" width="8.140625" style="101" customWidth="1"/>
+    <col min="22" max="24" width="8.140625" style="99" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:24" s="105" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="103"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="141">
+        <v>1</v>
+      </c>
+      <c r="L1" s="141">
+        <v>2</v>
+      </c>
+      <c r="M1" s="141">
+        <v>3</v>
+      </c>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+    </row>
+    <row r="2" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>MAX(A6:A58)</f>
+        <v>52</v>
+      </c>
+      <c r="B2" s="116">
+        <v>1</v>
+      </c>
+      <c r="C2" s="116">
+        <v>1</v>
+      </c>
+      <c r="D2" s="132">
+        <v>2</v>
+      </c>
+      <c r="E2" s="132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="132" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="132" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="132" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="132" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="132" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="116">
+        <v>2</v>
+      </c>
+      <c r="L2" s="116">
+        <v>2</v>
+      </c>
+      <c r="M2" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+    </row>
+    <row r="3" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="102">
+        <v>1</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="102">
+        <f>A3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+    </row>
+    <row r="4" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="102">
+        <f t="shared" ref="A4:A54" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="102">
+        <f>A4</f>
+        <v>2</v>
+      </c>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+    </row>
+    <row r="5" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="102">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="140" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="109"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="102">
+        <f>A5</f>
+        <v>3</v>
+      </c>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+    </row>
+    <row r="6" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="102">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="119">
+        <v>1</v>
+      </c>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="136">
+        <v>2</v>
+      </c>
+      <c r="G6" s="109">
+        <v>5</v>
+      </c>
+      <c r="H6" s="109">
+        <v>1</v>
+      </c>
+      <c r="I6" s="108" t="str">
+        <f t="shared" ref="I6:I25" si="1">IF(ISTEXT($G6),"",IF(K6=B6,"ok",1))</f>
+        <v>ok</v>
+      </c>
+      <c r="J6" s="102">
+        <f>A6</f>
+        <v>4</v>
+      </c>
+      <c r="K6" s="119" t="str">
+        <f>IF(ISTEXT($G6),"",INDEX($D$2:$F$47,$G6,K$1+$H6))</f>
+        <v>nper</v>
+      </c>
+      <c r="L6" s="119">
+        <f>IF(ISTEXT($G6),$G6,INDEX($D$2:$F$47,$G6,L$1+$H6+IF($H6=1,0,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="120" t="str">
+        <f t="shared" ref="M6:M25" si="2">IF(L6=C6,"","←")</f>
+        <v>←</v>
+      </c>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="101"/>
+    </row>
+    <row r="7" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="102">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="117">
+        <v>1</v>
+      </c>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="136">
+        <v>1</v>
+      </c>
+      <c r="G7" s="109">
+        <v>6</v>
+      </c>
+      <c r="H7" s="109">
+        <v>1</v>
+      </c>
+      <c r="I7" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J7" s="102">
+        <f t="shared" ref="J7:J24" si="3">A7</f>
+        <v>5</v>
+      </c>
+      <c r="K7" s="117" t="str">
+        <f t="shared" ref="K7:K25" si="4">IF(ISTEXT($G7),"",INDEX($D$2:$F$47,$G7,K$1+$H7))</f>
+        <v>nlay</v>
+      </c>
+      <c r="L7" s="117">
+        <f t="shared" ref="L7:L25" si="5">IF(ISTEXT($G7),$G7,INDEX($D$2:$F$47,$G7,L$1+$H7+IF($H7=1,0,1)))</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="118" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
+    </row>
+    <row r="8" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="117" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="117">
+        <v>101</v>
+      </c>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="136">
+        <v>1</v>
+      </c>
+      <c r="G8" s="109">
+        <v>8</v>
+      </c>
+      <c r="H8" s="109">
+        <v>1</v>
+      </c>
+      <c r="I8" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J8" s="102">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K8" s="117" t="str">
+        <f t="shared" si="4"/>
+        <v>ncol</v>
+      </c>
+      <c r="L8" s="117">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="M8" s="118" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+    </row>
+    <row r="9" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="102">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="117" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="117">
+        <v>1</v>
+      </c>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="136">
+        <v>101</v>
+      </c>
+      <c r="G9" s="109">
+        <v>7</v>
+      </c>
+      <c r="H9" s="109">
+        <v>1</v>
+      </c>
+      <c r="I9" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J9" s="102">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K9" s="117" t="str">
+        <f t="shared" si="4"/>
+        <v>nrow</v>
+      </c>
+      <c r="L9" s="117">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="118" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+    </row>
+    <row r="10" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="102">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="119" t="str">
+        <f>K10</f>
+        <v>period1</v>
+      </c>
+      <c r="C10" s="119">
+        <v>2</v>
+      </c>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="136">
+        <v>160</v>
+      </c>
+      <c r="G10" s="109">
+        <v>9</v>
+      </c>
+      <c r="H10" s="109">
+        <v>1</v>
+      </c>
+      <c r="I10" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J10" s="102">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K10" s="119" t="str">
+        <f t="shared" si="4"/>
+        <v>period1</v>
+      </c>
+      <c r="L10" s="119">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="M10" s="120" t="str">
+        <f t="shared" si="2"/>
+        <v>←</v>
+      </c>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="101"/>
+    </row>
+    <row r="11" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="102">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="119" t="str">
+        <f t="shared" ref="B11:B12" si="6">K11</f>
+        <v>period2</v>
+      </c>
+      <c r="C11" s="119">
+        <v>3</v>
+      </c>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="F11" s="136">
+        <v>1340</v>
+      </c>
+      <c r="G11" s="109">
+        <v>10</v>
+      </c>
+      <c r="H11" s="109">
+        <v>1</v>
+      </c>
+      <c r="I11" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J11" s="102">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K11" s="119" t="str">
+        <f t="shared" si="4"/>
+        <v>period2</v>
+      </c>
+      <c r="L11" s="119">
+        <f t="shared" si="5"/>
+        <v>1340</v>
+      </c>
+      <c r="M11" s="120" t="str">
+        <f t="shared" si="2"/>
+        <v>←</v>
+      </c>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="101"/>
+    </row>
+    <row r="12" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="102">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="119" t="str">
+        <f t="shared" si="6"/>
+        <v>delta_time</v>
+      </c>
+      <c r="C12" s="119">
+        <v>4</v>
+      </c>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="136">
+        <v>1</v>
+      </c>
+      <c r="G12" s="109">
+        <v>11</v>
+      </c>
+      <c r="H12" s="109">
+        <v>1</v>
+      </c>
+      <c r="I12" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J12" s="102">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="119" t="str">
+        <f t="shared" si="4"/>
+        <v>delta_time</v>
+      </c>
+      <c r="L12" s="119">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="120" t="str">
+        <f t="shared" si="2"/>
+        <v>←</v>
+      </c>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101"/>
+    </row>
+    <row r="13" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="102">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="117">
+        <v>10</v>
+      </c>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="136">
+        <v>0.16</v>
+      </c>
+      <c r="G13" s="109">
+        <v>12</v>
+      </c>
+      <c r="H13" s="109">
+        <v>1</v>
+      </c>
+      <c r="I13" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J13" s="102">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="K13" s="117" t="str">
+        <f t="shared" si="4"/>
+        <v>delr</v>
+      </c>
+      <c r="L13" s="117">
+        <f t="shared" si="5"/>
+        <v>0.16</v>
+      </c>
+      <c r="M13" s="118" t="str">
+        <f t="shared" si="2"/>
+        <v>←</v>
+      </c>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101"/>
+    </row>
+    <row r="14" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="102">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="117">
+        <v>1</v>
+      </c>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="136">
+        <v>0.16</v>
+      </c>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109">
+        <v>1</v>
+      </c>
+      <c r="I14" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J14" s="102">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="K14" s="117" t="str">
+        <f t="shared" si="4"/>
+        <v>delc</v>
+      </c>
+      <c r="L14" s="117">
+        <f t="shared" si="5"/>
+        <v>0.16</v>
+      </c>
+      <c r="M14" s="118" t="str">
+        <f t="shared" si="2"/>
+        <v>←</v>
+      </c>
+      <c r="N14" s="118"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+    </row>
+    <row r="15" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="102">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="117" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="117">
+        <v>0</v>
+      </c>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="136">
+        <v>1</v>
+      </c>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109">
+        <v>1</v>
+      </c>
+      <c r="I15" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J15" s="102">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K15" s="117" t="str">
+        <f t="shared" si="4"/>
+        <v>top</v>
+      </c>
+      <c r="L15" s="117">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="118" t="str">
+        <f t="shared" si="2"/>
+        <v>←</v>
+      </c>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="101"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="101"/>
+      <c r="X15" s="101"/>
+    </row>
+    <row r="16" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="102">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="117">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="136">
+        <v>0</v>
+      </c>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109">
+        <v>1</v>
+      </c>
+      <c r="I16" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J16" s="102">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="K16" s="117" t="str">
+        <f t="shared" si="4"/>
+        <v>botm</v>
+      </c>
+      <c r="L16" s="117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="118" t="str">
+        <f t="shared" si="2"/>
+        <v>←</v>
+      </c>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+    </row>
+    <row r="17" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="102">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="117" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="112" t="str">
+        <f>B31</f>
+        <v>v</v>
+      </c>
+      <c r="E17" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="136">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="109">
+        <v>18</v>
+      </c>
+      <c r="H17" s="109">
+        <v>0</v>
+      </c>
+      <c r="I17" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J17" s="102">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K17" s="117" t="str">
+        <f t="shared" si="4"/>
+        <v>prsity</v>
+      </c>
+      <c r="L17" s="117">
+        <f t="shared" si="5"/>
+        <v>0.37</v>
+      </c>
+      <c r="M17" s="118" t="str">
+        <f t="shared" si="2"/>
+        <v>←</v>
+      </c>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="101"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="101"/>
+    </row>
+    <row r="18" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="102">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="119">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="112" t="str">
+        <f>B22</f>
+        <v>k11</v>
+      </c>
+      <c r="E18" s="112" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="136">
+        <v>0.01</v>
+      </c>
+      <c r="G18" s="109">
+        <v>24</v>
+      </c>
+      <c r="H18" s="109">
+        <v>1</v>
+      </c>
+      <c r="I18" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J18" s="102">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="K18" s="119" t="str">
+        <f t="shared" si="4"/>
+        <v>perlen</v>
+      </c>
+      <c r="L18" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="120" t="str">
+        <f t="shared" si="2"/>
+        <v>←</v>
+      </c>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="101"/>
+      <c r="R18" s="101"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="101"/>
+      <c r="U18" s="101"/>
+      <c r="V18" s="101"/>
+      <c r="W18" s="101"/>
+      <c r="X18" s="101"/>
+    </row>
+    <row r="19" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="102">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="119" t="str">
+        <f>E10</f>
+        <v>period1</v>
+      </c>
+      <c r="C19" s="119"/>
+      <c r="D19" s="112" t="str">
+        <f>B17</f>
+        <v>prsity</v>
+      </c>
+      <c r="E19" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="136">
+        <v>0.37</v>
+      </c>
+      <c r="G19" s="109">
+        <v>9</v>
+      </c>
+      <c r="H19" s="109">
+        <v>1</v>
+      </c>
+      <c r="I19" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J19" s="102">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="K19" s="119" t="str">
+        <f t="shared" si="4"/>
+        <v>period1</v>
+      </c>
+      <c r="L19" s="119">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="M19" s="120" t="str">
+        <f t="shared" si="2"/>
+        <v>←</v>
+      </c>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="101"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="101"/>
+      <c r="W19" s="101"/>
+      <c r="X19" s="101"/>
+    </row>
+    <row r="20" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="102">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="119" t="str">
+        <f>E11</f>
+        <v>period2</v>
+      </c>
+      <c r="C20" s="119"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="136">
+        <v>1.587</v>
+      </c>
+      <c r="G20" s="109">
+        <v>10</v>
+      </c>
+      <c r="H20" s="109">
+        <v>1</v>
+      </c>
+      <c r="I20" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J20" s="102">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="K20" s="119" t="str">
+        <f t="shared" si="4"/>
+        <v>period2</v>
+      </c>
+      <c r="L20" s="119">
+        <f t="shared" si="5"/>
+        <v>1340</v>
+      </c>
+      <c r="M20" s="120" t="str">
+        <f t="shared" si="2"/>
+        <v>←</v>
+      </c>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="101"/>
+      <c r="T20" s="101"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="101"/>
+      <c r="W20" s="101"/>
+      <c r="X20" s="101"/>
+    </row>
+    <row r="21" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="102">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="121" t="str">
+        <f>E21</f>
+        <v>distribution_coefficient</v>
+      </c>
+      <c r="C21" s="119"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="136">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109">
+        <v>1</v>
+      </c>
+      <c r="I21" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J21" s="102">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="K21" s="121" t="str">
+        <f t="shared" si="4"/>
+        <v>distribution_coefficient</v>
+      </c>
+      <c r="L21" s="121">
+        <f t="shared" si="5"/>
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="M21" s="120" t="str">
+        <f t="shared" si="2"/>
+        <v>←</v>
+      </c>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="101"/>
+      <c r="V21" s="101"/>
+      <c r="W21" s="101"/>
+      <c r="X21" s="101"/>
+    </row>
+    <row r="22" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="102">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="117">
+        <v>1</v>
+      </c>
+      <c r="D22" s="112" t="str">
+        <f>B17</f>
+        <v>prsity</v>
+      </c>
+      <c r="E22" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="136">
+        <v>1</v>
+      </c>
+      <c r="G22" s="109">
+        <v>17</v>
+      </c>
+      <c r="H22" s="109">
+        <v>0</v>
+      </c>
+      <c r="I22" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J22" s="102">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K22" s="117" t="str">
+        <f t="shared" si="4"/>
+        <v>k11</v>
+      </c>
+      <c r="L22" s="117">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="M22" s="118" t="str">
+        <f t="shared" si="2"/>
+        <v>←</v>
+      </c>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="101"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="101"/>
+      <c r="X22" s="101"/>
+    </row>
+    <row r="23" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="102">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="122" t="str">
+        <f>E23</f>
+        <v>source_concentration</v>
+      </c>
+      <c r="C23" s="117"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="136">
+        <v>0.05</v>
+      </c>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109">
+        <v>1</v>
+      </c>
+      <c r="I23" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J23" s="102">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="K23" s="122" t="str">
+        <f t="shared" si="4"/>
+        <v>source_concentration</v>
+      </c>
+      <c r="L23" s="122">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+      <c r="M23" s="118" t="str">
+        <f t="shared" si="2"/>
+        <v>←</v>
+      </c>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="101"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="101"/>
+      <c r="X23" s="101"/>
+    </row>
+    <row r="24" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="102">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="117"/>
+      <c r="D24" s="112" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="112" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="136">
+        <v>0</v>
+      </c>
+      <c r="G24" s="109">
+        <v>23</v>
+      </c>
+      <c r="H24" s="109">
+        <v>0</v>
+      </c>
+      <c r="I24" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J24" s="102">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="K24" s="123" t="str">
+        <f t="shared" si="4"/>
+        <v>sconc</v>
+      </c>
+      <c r="L24" s="123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="118" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="101"/>
+      <c r="T24" s="101"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="101"/>
+      <c r="W24" s="101"/>
+      <c r="X24" s="101"/>
+    </row>
+    <row r="25" spans="1:24" s="98" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="102">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="122" t="str">
+        <f>E25</f>
+        <v>perlen</v>
+      </c>
+      <c r="C25" s="117"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113" t="str">
+        <f>B18</f>
+        <v>perlen</v>
+      </c>
+      <c r="F25" s="137"/>
+      <c r="G25" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="109">
+        <v>1</v>
+      </c>
+      <c r="I25" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J25" s="102">
+        <f>A26</f>
+        <v>24</v>
+      </c>
+      <c r="K25" s="122" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L25" s="122" t="str">
+        <f t="shared" si="5"/>
+        <v>periods</v>
+      </c>
+      <c r="M25" s="118" t="str">
+        <f t="shared" si="2"/>
+        <v>←</v>
+      </c>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="101"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="101"/>
+      <c r="X25" s="101"/>
+    </row>
+    <row r="26" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="102">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="117" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="101"/>
+      <c r="U26" s="101"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="101"/>
+      <c r="X26" s="101"/>
+    </row>
+    <row r="27" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="102">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="117" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="117">
+        <v>1</v>
+      </c>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="101"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="101"/>
+      <c r="U27" s="101"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="101"/>
+      <c r="X27" s="101"/>
+    </row>
+    <row r="28" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="102">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="117" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="117">
+        <v>100</v>
+      </c>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+    </row>
+    <row r="29" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="102">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="110"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="117"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="117"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="101"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="101"/>
+    </row>
+    <row r="30" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="102">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="117" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="101"/>
+      <c r="S30" s="101"/>
+      <c r="T30" s="101"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="101"/>
+    </row>
+    <row r="31" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="102">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="117" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="117">
+        <v>0.24</v>
+      </c>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
+    </row>
+    <row r="32" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="102">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="117" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="101"/>
+      <c r="S32" s="101"/>
+      <c r="T32" s="101"/>
+      <c r="U32" s="101"/>
+      <c r="V32" s="101"/>
+      <c r="W32" s="101"/>
+      <c r="X32" s="101"/>
+    </row>
+    <row r="33" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="102">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="101"/>
+      <c r="S33" s="101"/>
+      <c r="T33" s="101"/>
+      <c r="U33" s="101"/>
+      <c r="V33" s="101"/>
+      <c r="W33" s="101"/>
+      <c r="X33" s="101"/>
+    </row>
+    <row r="34" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="102">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="117" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="117">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="134">
+        <v>320</v>
+      </c>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="117" t="str">
+        <f>E34</f>
+        <v>strt</v>
+      </c>
+      <c r="L34" s="117">
+        <v>1</v>
+      </c>
+      <c r="M34" s="117"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101"/>
+      <c r="R34" s="101"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="101"/>
+      <c r="U34" s="101"/>
+      <c r="V34" s="101"/>
+      <c r="W34" s="101"/>
+      <c r="X34" s="101"/>
+    </row>
+    <row r="35" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="102">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="117" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="117">
+        <v>1</v>
+      </c>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="134"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="139">
+        <f>A36</f>
+        <v>34</v>
+      </c>
+      <c r="K35" s="117" t="str">
+        <f>E35</f>
+        <v>icelltype</v>
+      </c>
+      <c r="L35" s="117">
+        <v>1</v>
+      </c>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="101"/>
+      <c r="R35" s="101"/>
+      <c r="S35" s="101"/>
+      <c r="T35" s="101"/>
+      <c r="U35" s="101"/>
+      <c r="V35" s="101"/>
+      <c r="W35" s="101"/>
+      <c r="X35" s="101"/>
+    </row>
+    <row r="36" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="102">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="117">
+        <v>0</v>
+      </c>
+      <c r="D36" s="110"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="101"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="101"/>
+      <c r="T36" s="101"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="101"/>
+      <c r="W36" s="101"/>
+      <c r="X36" s="101"/>
+    </row>
+    <row r="37" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="102">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="117" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="117"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="101"/>
+      <c r="Q37" s="101"/>
+      <c r="R37" s="101"/>
+      <c r="S37" s="101"/>
+      <c r="T37" s="101"/>
+      <c r="U37" s="101"/>
+      <c r="V37" s="101"/>
+      <c r="W37" s="101"/>
+      <c r="X37" s="101"/>
+    </row>
+    <row r="38" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="102">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="117">
+        <v>0</v>
+      </c>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="101"/>
+      <c r="R38" s="101"/>
+      <c r="S38" s="101"/>
+      <c r="T38" s="101"/>
+      <c r="U38" s="101"/>
+      <c r="V38" s="101"/>
+      <c r="W38" s="101"/>
+      <c r="X38" s="101"/>
+    </row>
+    <row r="39" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="102">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="117" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="97" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="97" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="97" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="97" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="97" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="97" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="97" t="s">
+      <c r="C39" s="117">
+        <v>0</v>
+      </c>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="117"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="101"/>
+      <c r="R39" s="101"/>
+      <c r="S39" s="101"/>
+      <c r="T39" s="101"/>
+      <c r="U39" s="101"/>
+      <c r="V39" s="101"/>
+      <c r="W39" s="101"/>
+      <c r="X39" s="101"/>
+    </row>
+    <row r="40" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="102">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="117">
+        <v>200</v>
+      </c>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="134"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="117"/>
+      <c r="N40" s="117"/>
+      <c r="O40" s="117"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="101"/>
+      <c r="R40" s="101"/>
+      <c r="S40" s="101"/>
+      <c r="T40" s="101"/>
+      <c r="U40" s="101"/>
+      <c r="V40" s="101"/>
+      <c r="W40" s="101"/>
+      <c r="X40" s="101"/>
+    </row>
+    <row r="41" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="102">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="117">
+        <v>300</v>
+      </c>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="117"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="117"/>
+      <c r="O41" s="117"/>
+      <c r="P41" s="101"/>
+      <c r="Q41" s="101"/>
+      <c r="R41" s="101"/>
+      <c r="S41" s="101"/>
+      <c r="T41" s="101"/>
+      <c r="U41" s="101"/>
+      <c r="V41" s="101"/>
+      <c r="W41" s="101"/>
+      <c r="X41" s="101"/>
+    </row>
+    <row r="42" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="102">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="117" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="124">
+        <f>1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="117"/>
+      <c r="M42" s="117"/>
+      <c r="N42" s="117"/>
+      <c r="O42" s="117"/>
+      <c r="P42" s="101"/>
+      <c r="Q42" s="101"/>
+      <c r="R42" s="101"/>
+      <c r="S42" s="101"/>
+      <c r="T42" s="101"/>
+      <c r="U42" s="101"/>
+      <c r="V42" s="101"/>
+      <c r="W42" s="101"/>
+      <c r="X42" s="101"/>
+    </row>
+    <row r="43" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="102">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="124">
+        <f>1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="117"/>
+      <c r="M43" s="117"/>
+      <c r="N43" s="117"/>
+      <c r="O43" s="117"/>
+      <c r="P43" s="101"/>
+      <c r="Q43" s="101"/>
+      <c r="R43" s="101"/>
+      <c r="S43" s="101"/>
+      <c r="T43" s="101"/>
+      <c r="U43" s="101"/>
+      <c r="V43" s="101"/>
+      <c r="W43" s="101"/>
+      <c r="X43" s="101"/>
+    </row>
+    <row r="44" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="102">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="117" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="117">
+        <v>1</v>
+      </c>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="134"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="117"/>
+      <c r="M44" s="117"/>
+      <c r="N44" s="117"/>
+      <c r="O44" s="117"/>
+      <c r="P44" s="101"/>
+      <c r="Q44" s="101"/>
+      <c r="R44" s="101"/>
+      <c r="S44" s="101"/>
+      <c r="T44" s="101"/>
+      <c r="U44" s="101"/>
+      <c r="V44" s="101"/>
+      <c r="W44" s="101"/>
+      <c r="X44" s="101"/>
+    </row>
+    <row r="45" spans="1:24" s="98" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="102">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="125" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="125">
+        <v>1</v>
+      </c>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="117"/>
+      <c r="M45" s="117"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="101"/>
+      <c r="Q45" s="101"/>
+      <c r="R45" s="101"/>
+      <c r="S45" s="101"/>
+      <c r="T45" s="101"/>
+      <c r="U45" s="101"/>
+      <c r="V45" s="101"/>
+      <c r="W45" s="101"/>
+      <c r="X45" s="101"/>
+    </row>
+    <row r="46" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="102">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="126">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="117"/>
+      <c r="M46" s="117"/>
+      <c r="N46" s="117"/>
+      <c r="O46" s="117"/>
+      <c r="V46" s="101"/>
+      <c r="W46" s="101"/>
+      <c r="X46" s="101"/>
+    </row>
+    <row r="47" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="102">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="125" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="125">
+        <v>1</v>
+      </c>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="107"/>
+      <c r="K47" s="117"/>
+      <c r="L47" s="117"/>
+      <c r="M47" s="117"/>
+      <c r="N47" s="117"/>
+      <c r="O47" s="117"/>
+      <c r="V47" s="101"/>
+      <c r="W47" s="101"/>
+      <c r="X47" s="101"/>
+    </row>
+    <row r="48" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="102">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="125">
+        <v>0</v>
+      </c>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="117"/>
+      <c r="L48" s="117"/>
+      <c r="M48" s="117"/>
+      <c r="N48" s="117"/>
+      <c r="O48" s="117"/>
+      <c r="V48" s="101"/>
+      <c r="W48" s="101"/>
+      <c r="X48" s="101"/>
+    </row>
+    <row r="49" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="102">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="125" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="125">
+        <v>4</v>
+      </c>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="107"/>
+      <c r="K49" s="117"/>
+      <c r="L49" s="117"/>
+      <c r="M49" s="117"/>
+      <c r="N49" s="117"/>
+      <c r="O49" s="117"/>
+      <c r="V49" s="101"/>
+      <c r="W49" s="101"/>
+      <c r="X49" s="101"/>
+    </row>
+    <row r="50" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="102">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="125">
+        <v>0</v>
+      </c>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="107"/>
+      <c r="K50" s="117"/>
+      <c r="L50" s="117"/>
+      <c r="M50" s="117"/>
+      <c r="N50" s="117"/>
+      <c r="O50" s="117"/>
+      <c r="V50" s="101"/>
+      <c r="W50" s="101"/>
+      <c r="X50" s="101"/>
+    </row>
+    <row r="51" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="102">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="125">
+        <v>8</v>
+      </c>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="107"/>
+      <c r="J51" s="107"/>
+      <c r="K51" s="117"/>
+      <c r="L51" s="117"/>
+      <c r="M51" s="117"/>
+      <c r="N51" s="117"/>
+      <c r="O51" s="117"/>
+      <c r="V51" s="101"/>
+      <c r="W51" s="101"/>
+      <c r="X51" s="101"/>
+    </row>
+    <row r="52" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="102">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="125" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="134"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="107"/>
+      <c r="K52" s="117"/>
+      <c r="L52" s="117"/>
+      <c r="M52" s="117"/>
+      <c r="N52" s="117"/>
+      <c r="O52" s="117"/>
+      <c r="V52" s="101"/>
+      <c r="W52" s="101"/>
+      <c r="X52" s="101"/>
+    </row>
+    <row r="53" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="102">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="125" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="125" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="107"/>
+      <c r="K53" s="117"/>
+      <c r="L53" s="117"/>
+      <c r="M53" s="117"/>
+      <c r="N53" s="117"/>
+      <c r="O53" s="117"/>
+      <c r="V53" s="101"/>
+      <c r="W53" s="101"/>
+      <c r="X53" s="101"/>
+    </row>
+    <row r="54" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="102">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="125" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="97" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="97" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="97" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="97" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="97" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="97" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="97" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="97" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="97" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="97" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="97" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="97" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="97" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="97" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="97" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="97" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="97" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="97" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="97" t="s">
-        <v>69</v>
-      </c>
+      <c r="C54" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="107"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="107"/>
+      <c r="J54" s="107"/>
+      <c r="K54" s="117"/>
+      <c r="L54" s="117"/>
+      <c r="M54" s="117"/>
+      <c r="N54" s="117"/>
+      <c r="O54" s="117"/>
+      <c r="V54" s="101"/>
+      <c r="W54" s="101"/>
+      <c r="X54" s="101"/>
+    </row>
+    <row r="55" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="101"/>
+      <c r="V55" s="101"/>
+      <c r="W55" s="101"/>
+      <c r="X55" s="101"/>
+    </row>
+    <row r="56" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="101"/>
+      <c r="V56" s="101"/>
+      <c r="W56" s="101"/>
+      <c r="X56" s="101"/>
+    </row>
+    <row r="57" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="101"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
+      <c r="X57" s="101"/>
+    </row>
+    <row r="58" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="101"/>
+      <c r="V58" s="101"/>
+      <c r="W58" s="101"/>
+      <c r="X58" s="101"/>
+    </row>
+    <row r="59" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="101"/>
+      <c r="V59" s="101"/>
+      <c r="W59" s="101"/>
+      <c r="X59" s="101"/>
+    </row>
+    <row r="60" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="101"/>
+      <c r="V60" s="101"/>
+      <c r="W60" s="101"/>
+      <c r="X60" s="101"/>
+    </row>
+    <row r="61" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="101"/>
+      <c r="V61" s="101"/>
+      <c r="W61" s="101"/>
+      <c r="X61" s="101"/>
+    </row>
+    <row r="62" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="101"/>
+      <c r="V62" s="101"/>
+      <c r="W62" s="101"/>
+      <c r="X62" s="101"/>
+    </row>
+    <row r="63" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="101"/>
+      <c r="V63" s="101"/>
+      <c r="W63" s="101"/>
+      <c r="X63" s="101"/>
+    </row>
+    <row r="64" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="101"/>
+      <c r="V64" s="101"/>
+      <c r="W64" s="101"/>
+      <c r="X64" s="101"/>
+    </row>
+    <row r="65" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="101"/>
+      <c r="V65" s="101"/>
+      <c r="W65" s="101"/>
+      <c r="X65" s="101"/>
+    </row>
+    <row r="66" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="101"/>
+      <c r="V66" s="101"/>
+      <c r="W66" s="101"/>
+      <c r="X66" s="101"/>
+    </row>
+    <row r="67" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="101"/>
+      <c r="V67" s="101"/>
+      <c r="W67" s="101"/>
+      <c r="X67" s="101"/>
+    </row>
+    <row r="68" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="101"/>
+      <c r="V68" s="101"/>
+      <c r="W68" s="101"/>
+      <c r="X68" s="101"/>
+    </row>
+    <row r="69" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="101"/>
+      <c r="V69" s="101"/>
+      <c r="W69" s="101"/>
+      <c r="X69" s="101"/>
+    </row>
+    <row r="70" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="101"/>
+      <c r="V70" s="101"/>
+      <c r="W70" s="101"/>
+      <c r="X70" s="101"/>
+    </row>
+    <row r="71" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="101"/>
+      <c r="V71" s="101"/>
+      <c r="W71" s="101"/>
+      <c r="X71" s="101"/>
+    </row>
+    <row r="72" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="101"/>
+      <c r="V72" s="101"/>
+      <c r="W72" s="101"/>
+      <c r="X72" s="101"/>
+    </row>
+    <row r="73" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="101"/>
+      <c r="V73" s="101"/>
+      <c r="W73" s="101"/>
+      <c r="X73" s="101"/>
+    </row>
+    <row r="74" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="101"/>
+      <c r="V74" s="101"/>
+      <c r="W74" s="101"/>
+      <c r="X74" s="101"/>
+    </row>
+    <row r="75" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="101"/>
+      <c r="V75" s="101"/>
+      <c r="W75" s="101"/>
+      <c r="X75" s="101"/>
+    </row>
+    <row r="76" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="101"/>
+      <c r="V76" s="101"/>
+      <c r="W76" s="101"/>
+      <c r="X76" s="101"/>
+    </row>
+    <row r="77" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="101"/>
+      <c r="V77" s="101"/>
+      <c r="W77" s="101"/>
+      <c r="X77" s="101"/>
+    </row>
+    <row r="78" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I78" s="101"/>
+      <c r="V78" s="101"/>
+      <c r="W78" s="101"/>
+      <c r="X78" s="101"/>
+    </row>
+    <row r="79" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="101"/>
+      <c r="V79" s="101"/>
+      <c r="W79" s="101"/>
+      <c r="X79" s="101"/>
+    </row>
+    <row r="80" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="101"/>
+      <c r="V80" s="101"/>
+      <c r="W80" s="101"/>
+      <c r="X80" s="101"/>
+    </row>
+    <row r="81" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I81" s="101"/>
+      <c r="V81" s="101"/>
+      <c r="W81" s="101"/>
+      <c r="X81" s="101"/>
+    </row>
+    <row r="82" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="101"/>
+      <c r="V82" s="101"/>
+      <c r="W82" s="101"/>
+      <c r="X82" s="101"/>
+    </row>
+    <row r="83" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I83" s="101"/>
+      <c r="V83" s="101"/>
+      <c r="W83" s="101"/>
+      <c r="X83" s="101"/>
+    </row>
+    <row r="84" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I84" s="101"/>
+      <c r="V84" s="101"/>
+      <c r="W84" s="101"/>
+      <c r="X84" s="101"/>
+    </row>
+    <row r="85" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I85" s="101"/>
+      <c r="V85" s="101"/>
+      <c r="W85" s="101"/>
+      <c r="X85" s="101"/>
+    </row>
+    <row r="86" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I86" s="101"/>
+      <c r="V86" s="101"/>
+      <c r="W86" s="101"/>
+      <c r="X86" s="101"/>
+    </row>
+    <row r="87" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I87" s="101"/>
+      <c r="V87" s="101"/>
+      <c r="W87" s="101"/>
+      <c r="X87" s="101"/>
+    </row>
+    <row r="88" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I88" s="101"/>
+      <c r="V88" s="101"/>
+      <c r="W88" s="101"/>
+      <c r="X88" s="101"/>
+    </row>
+    <row r="89" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I89" s="101"/>
+      <c r="V89" s="101"/>
+      <c r="W89" s="101"/>
+      <c r="X89" s="101"/>
+    </row>
+    <row r="90" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I90" s="101"/>
+      <c r="V90" s="101"/>
+      <c r="W90" s="101"/>
+      <c r="X90" s="101"/>
+    </row>
+    <row r="91" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I91" s="101"/>
+    </row>
+    <row r="92" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I92" s="101"/>
+    </row>
+    <row r="93" spans="9:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I93" s="101"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I6:I26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24116,7 +26609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990D41E3-92FB-47E2-B09D-2A2C2DE618C7}">
   <dimension ref="A1:CX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
+    <sheetView topLeftCell="BV1" workbookViewId="0">
       <selection activeCell="CD8" sqref="CD8"/>
     </sheetView>
   </sheetViews>
@@ -25122,229 +27615,229 @@
       <c r="AA4">
         <v>1.23983206820981E-4</v>
       </c>
-      <c r="AB4" s="98">
+      <c r="AB4" s="97">
         <v>7.2510474997067295E-5</v>
       </c>
-      <c r="AC4" s="98">
+      <c r="AC4" s="97">
         <v>4.16686640332027E-5</v>
       </c>
-      <c r="AD4" s="98">
+      <c r="AD4" s="97">
         <v>2.3532238775298302E-5</v>
       </c>
-      <c r="AE4" s="98">
+      <c r="AE4" s="97">
         <v>1.3063255671693999E-5</v>
       </c>
-      <c r="AF4" s="98">
+      <c r="AF4" s="97">
         <v>7.1297817242307903E-6</v>
       </c>
-      <c r="AG4" s="98">
+      <c r="AG4" s="97">
         <v>3.8269204457502799E-6</v>
       </c>
-      <c r="AH4" s="98">
+      <c r="AH4" s="97">
         <v>2.0206453364376601E-6</v>
       </c>
-      <c r="AI4" s="98">
+      <c r="AI4" s="97">
         <v>1.0498388018948199E-6</v>
       </c>
-      <c r="AJ4" s="98">
+      <c r="AJ4" s="97">
         <v>5.3687743043305297E-7</v>
       </c>
-      <c r="AK4" s="98">
+      <c r="AK4" s="97">
         <v>2.703200058607E-7</v>
       </c>
-      <c r="AL4" s="98">
+      <c r="AL4" s="97">
         <v>1.34048988910531E-7</v>
       </c>
-      <c r="AM4" s="98">
+      <c r="AM4" s="97">
         <v>6.5488252085413795E-8</v>
       </c>
-      <c r="AN4" s="98">
+      <c r="AN4" s="97">
         <v>3.1528957275181099E-8</v>
       </c>
-      <c r="AO4" s="98">
+      <c r="AO4" s="97">
         <v>1.4963496812868799E-8</v>
       </c>
-      <c r="AP4" s="98">
+      <c r="AP4" s="97">
         <v>7.0026657000445098E-9</v>
       </c>
-      <c r="AQ4" s="98">
+      <c r="AQ4" s="97">
         <v>3.2324236217418499E-9</v>
       </c>
-      <c r="AR4" s="98">
+      <c r="AR4" s="97">
         <v>1.4721546723188799E-9</v>
       </c>
-      <c r="AS4" s="98">
+      <c r="AS4" s="97">
         <v>6.6170183371366198E-10</v>
       </c>
-      <c r="AT4" s="98">
+      <c r="AT4" s="97">
         <v>2.9361345231032E-10</v>
       </c>
-      <c r="AU4" s="98">
+      <c r="AU4" s="97">
         <v>1.2865086043615199E-10</v>
       </c>
-      <c r="AV4" s="98">
+      <c r="AV4" s="97">
         <v>5.5678604432925502E-11</v>
       </c>
-      <c r="AW4" s="98">
+      <c r="AW4" s="97">
         <v>2.38076180596954E-11</v>
       </c>
-      <c r="AX4" s="98">
+      <c r="AX4" s="97">
         <v>1.0060181918874499E-11</v>
       </c>
-      <c r="AY4" s="98">
+      <c r="AY4" s="97">
         <v>4.20209225429525E-12</v>
       </c>
-      <c r="AZ4" s="98">
+      <c r="AZ4" s="97">
         <v>1.7354017706706E-12</v>
       </c>
-      <c r="BA4" s="98">
+      <c r="BA4" s="97">
         <v>7.0877978825183398E-13</v>
       </c>
-      <c r="BB4" s="98">
+      <c r="BB4" s="97">
         <v>2.86351127574078E-13</v>
       </c>
-      <c r="BC4" s="98">
+      <c r="BC4" s="97">
         <v>1.1446153493888999E-13</v>
       </c>
-      <c r="BD4" s="98">
+      <c r="BD4" s="97">
         <v>4.5278032553498301E-14</v>
       </c>
-      <c r="BE4" s="98">
+      <c r="BE4" s="97">
         <v>1.7728603358148799E-14</v>
       </c>
-      <c r="BF4" s="98">
+      <c r="BF4" s="97">
         <v>6.8724200046372602E-15</v>
       </c>
-      <c r="BG4" s="98">
+      <c r="BG4" s="97">
         <v>2.63803062754492E-15</v>
       </c>
-      <c r="BH4" s="98">
+      <c r="BH4" s="97">
         <v>1.00292708585615E-15</v>
       </c>
-      <c r="BI4" s="98">
+      <c r="BI4" s="97">
         <v>3.77711661051988E-16</v>
       </c>
-      <c r="BJ4" s="98">
+      <c r="BJ4" s="97">
         <v>1.4093952882992001E-16</v>
       </c>
-      <c r="BK4" s="98">
+      <c r="BK4" s="97">
         <v>5.2115191780616299E-17</v>
       </c>
-      <c r="BL4" s="98">
+      <c r="BL4" s="97">
         <v>1.9099877098983399E-17</v>
       </c>
-      <c r="BM4" s="98">
+      <c r="BM4" s="97">
         <v>6.9391307659614205E-18</v>
       </c>
-      <c r="BN4" s="98">
+      <c r="BN4" s="97">
         <v>2.4995360932021801E-18</v>
       </c>
-      <c r="BO4" s="98">
+      <c r="BO4" s="97">
         <v>8.9281863448761291E-19</v>
       </c>
-      <c r="BP4" s="98">
+      <c r="BP4" s="97">
         <v>3.1628919823736199E-19</v>
       </c>
-      <c r="BQ4" s="98">
+      <c r="BQ4" s="97">
         <v>1.1114469447644799E-19</v>
       </c>
-      <c r="BR4" s="98">
+      <c r="BR4" s="97">
         <v>3.8747225102901598E-20</v>
       </c>
-      <c r="BS4" s="98">
+      <c r="BS4" s="97">
         <v>1.34030150690854E-20</v>
       </c>
-      <c r="BT4" s="98">
+      <c r="BT4" s="97">
         <v>4.6008209582563002E-21</v>
       </c>
-      <c r="BU4" s="98">
+      <c r="BU4" s="97">
         <v>1.56746695735469E-21</v>
       </c>
-      <c r="BV4" s="98">
+      <c r="BV4" s="97">
         <v>5.3008981491138299E-22</v>
       </c>
-      <c r="BW4" s="98">
+      <c r="BW4" s="97">
         <v>1.77969183694992E-22</v>
       </c>
-      <c r="BX4" s="98">
+      <c r="BX4" s="97">
         <v>5.93252091430586E-23</v>
       </c>
-      <c r="BY4" s="98">
+      <c r="BY4" s="97">
         <v>1.96375050424778E-23</v>
       </c>
-      <c r="BZ4" s="98">
+      <c r="BZ4" s="97">
         <v>6.4556205071798101E-24</v>
       </c>
-      <c r="CA4" s="98">
+      <c r="CA4" s="97">
         <v>2.1078762317147201E-24</v>
       </c>
-      <c r="CB4" s="98">
+      <c r="CB4" s="97">
         <v>6.8368675201377403E-25</v>
       </c>
-      <c r="CC4" s="98">
+      <c r="CC4" s="97">
         <v>2.20304034182346E-25</v>
       </c>
-      <c r="CD4" s="98">
+      <c r="CD4" s="97">
         <v>7.0532301936532304E-26</v>
       </c>
-      <c r="CE4" s="98">
+      <c r="CE4" s="97">
         <v>2.2438815688762501E-26</v>
       </c>
-      <c r="CF4" s="98">
+      <c r="CF4" s="97">
         <v>7.0941913183189696E-27</v>
       </c>
-      <c r="CG4" s="98">
+      <c r="CG4" s="97">
         <v>2.22915721277866E-27</v>
       </c>
-      <c r="CH4" s="98">
+      <c r="CH4" s="97">
         <v>6.9623529250488598E-28</v>
       </c>
-      <c r="CI4" s="98">
+      <c r="CI4" s="97">
         <v>2.1616759180729098E-28</v>
       </c>
-      <c r="CJ4" s="98">
+      <c r="CJ4" s="97">
         <v>6.6724456580275605E-29</v>
       </c>
-      <c r="CK4" s="98">
+      <c r="CK4" s="97">
         <v>2.04776048779957E-29</v>
       </c>
-      <c r="CL4" s="98">
+      <c r="CL4" s="97">
         <v>6.2490174913670796E-30</v>
       </c>
-      <c r="CM4" s="98">
+      <c r="CM4" s="97">
         <v>1.89635965641129E-30</v>
       </c>
-      <c r="CN4" s="98">
+      <c r="CN4" s="97">
         <v>5.7232551443161899E-31</v>
       </c>
-      <c r="CO4" s="98">
+      <c r="CO4" s="97">
         <v>1.7179682833983501E-31</v>
       </c>
-      <c r="CP4" s="98">
+      <c r="CP4" s="97">
         <v>5.1294664416321399E-32</v>
       </c>
-      <c r="CQ4" s="98">
+      <c r="CQ4" s="97">
         <v>1.52352241114979E-32</v>
       </c>
-      <c r="CR4" s="98">
+      <c r="CR4" s="97">
         <v>4.5017245574950699E-33</v>
       </c>
-      <c r="CS4" s="98">
+      <c r="CS4" s="97">
         <v>1.32341324617704E-33</v>
       </c>
-      <c r="CT4" s="98">
+      <c r="CT4" s="97">
         <v>3.8710696529408398E-34</v>
       </c>
-      <c r="CU4" s="98">
+      <c r="CU4" s="97">
         <v>1.12673083605073E-34</v>
       </c>
-      <c r="CV4" s="98">
+      <c r="CV4" s="97">
         <v>3.2641497597332402E-35</v>
       </c>
-      <c r="CW4" s="98">
+      <c r="CW4" s="97">
         <v>9.4529989792972101E-36</v>
       </c>
-      <c r="CX4" s="98">
+      <c r="CX4" s="97">
         <v>3.0204331644583597E-36</v>
       </c>
     </row>
